--- a/biology/Médecine/1665_en_santé_et_médecine/1665_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1665_en_santé_et_médecine/1665_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1665_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1665_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1665 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1665_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1665_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>12 avril : première victime officielle de l'épidémie de peste qui fait au moins 70 000 morts à Londres et dure jusqu'en 1666[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>12 avril : première victime officielle de l'épidémie de peste qui fait au moins 70 000 morts à Londres et dure jusqu'en 1666.</t>
         </is>
       </c>
     </row>
@@ -523,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1665_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1665_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,9 +555,11 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>12 février : Rudolf Camerarius (mort en 1721), médecin et botaniste allemand[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>12 février : Rudolf Camerarius (mort en 1721), médecin et botaniste allemand.
 1er mai : John Woodward (mort en 1728), médecin, naturaliste et géologue britannique.
 12 mai : Albertus Seba (mort en 1736), pharmacien et zoologiste néerlandais.
 Antonio Pacchioni (mort en 1726), médecin anatomiste italien.
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1665_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1665_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>14 juillet : Abel Brunier (né en 1572), médecin et botaniste français, auteur du Hortus regius blesensis en 1653.
 Date non précisée
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1665_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1665_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,7 +625,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ (en) J. F. D. Shrewsbury, A History of Bubonic Plague in the British Isles, Cambridge University Press, 2005, 680 p. (ISBN 978-0-521-02247-7, présentation en ligne).
@@ -622,7 +642,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1665_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1665_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -640,7 +660,9 @@
           <t>Article connexe</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">En lien avec la santé publique et la médecine sociale de la décennie :
 Chronologie des faits économiques et sociaux dans les années 1660
